--- a/5. Evaluation/pamm/port_hist.xlsx
+++ b/5. Evaluation/pamm/port_hist.xlsx
@@ -412,7 +412,7 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>166370.4445507138</v>
+        <v>167706.1178489838</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,10 +423,10 @@
         <v>42491</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>278835.7654086198</v>
+        <v>141121.9864131748</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -440,7 +440,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,7 +451,7 @@
         <v>42522</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -482,7 +482,7 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,7 +493,7 @@
         <v>42552</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,7 +524,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,7 +535,7 @@
         <v>42583</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -566,7 +566,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,7 +577,7 @@
         <v>42614</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -608,7 +608,7 @@
         <v>25</v>
       </c>
       <c r="D16">
-        <v>118303.0275714524</v>
+        <v>124716.0220577002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,7 +619,7 @@
         <v>42644</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>67987.82350413364</v>
+        <v>70909.83385403591</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -661,7 +661,7 @@
         <v>42675</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>47007.67531624622</v>
+        <v>49368.49857047338</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -692,7 +692,7 @@
         <v>46</v>
       </c>
       <c r="D22">
-        <v>142653.7154748683</v>
+        <v>148674.7447013595</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -717,7 +717,7 @@
         <v>42705</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>44749.74278497462</v>
+        <v>47104.45141366372</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -748,7 +748,7 @@
         <v>46</v>
       </c>
       <c r="D26">
-        <v>149658.8216489205</v>
+        <v>155698.8211504379</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -773,7 +773,7 @@
         <v>42736</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>42262.22818350539</v>
+        <v>44380.65275812989</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -804,7 +804,7 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>158079.3372747828</v>
+        <v>164919.1847724558</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -829,7 +829,7 @@
         <v>42767</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>46</v>
       </c>
       <c r="D34">
-        <v>130120.1265073163</v>
+        <v>128643.9077851855</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -874,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>8051.589952392956</v>
+        <v>8776.230755093631</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -899,7 +899,7 @@
         <v>42795</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>46</v>
       </c>
       <c r="D39">
-        <v>130120.1265073163</v>
+        <v>128643.9077851855</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -944,7 +944,7 @@
         <v>34</v>
       </c>
       <c r="D40">
-        <v>8051.589952392956</v>
+        <v>8776.230755093631</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -969,7 +969,7 @@
         <v>42826</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>46</v>
       </c>
       <c r="D44">
-        <v>123906.8336534202</v>
+        <v>124081.9569103992</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1014,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="D45">
-        <v>8354.135475511222</v>
+        <v>8998.367043581402</v>
       </c>
     </row>
   </sheetData>
